--- a/Multilinear Regression/Final Predictions/Final EU Data.xlsx
+++ b/Multilinear Regression/Final Predictions/Final EU Data.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,20 +476,10 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>SKLearn Predictions EU</t>
+          <t>SKLearn Predictions Hypothetical EU</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Statsmodel Predictions EU</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>SKLearn Predictions Hypothetical EU</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Statsmodel Predictions Hypothetical EU</t>
         </is>
@@ -526,16 +516,10 @@
         <v>3163147.9</v>
       </c>
       <c r="J2" t="n">
-        <v>211764.5505116155</v>
+        <v>227342.6094026559</v>
       </c>
       <c r="K2" t="n">
-        <v>167977.5807442868</v>
-      </c>
-      <c r="L2" t="n">
-        <v>227342.6094026556</v>
-      </c>
-      <c r="M2" t="n">
-        <v>181408.2197493696</v>
+        <v>181408.2197493701</v>
       </c>
     </row>
     <row r="3">
@@ -569,16 +553,10 @@
         <v>9946647.699999999</v>
       </c>
       <c r="J3" t="n">
-        <v>505931.2550248812</v>
+        <v>533144.8802702503</v>
       </c>
       <c r="K3" t="n">
-        <v>481183.235693147</v>
-      </c>
-      <c r="L3" t="n">
-        <v>533144.8802702501</v>
-      </c>
-      <c r="M3" t="n">
-        <v>504645.4898319073</v>
+        <v>504645.4898319083</v>
       </c>
     </row>
     <row r="4">
@@ -612,16 +590,10 @@
         <v>12787486.8</v>
       </c>
       <c r="J4" t="n">
-        <v>570197.0825231428</v>
+        <v>592338.2976849546</v>
       </c>
       <c r="K4" t="n">
-        <v>605739.6782830956</v>
-      </c>
-      <c r="L4" t="n">
-        <v>592338.2976849548</v>
-      </c>
-      <c r="M4" t="n">
-        <v>624828.7490108483</v>
+        <v>624828.7490108488</v>
       </c>
     </row>
     <row r="5">
@@ -655,16 +627,10 @@
         <v>3593093.9</v>
       </c>
       <c r="J5" t="n">
-        <v>255749.7049764413</v>
+        <v>272935.0588794036</v>
       </c>
       <c r="K5" t="n">
-        <v>182375.2131200863</v>
-      </c>
-      <c r="L5" t="n">
-        <v>272935.0588794032</v>
-      </c>
-      <c r="M5" t="n">
-        <v>197191.583122258</v>
+        <v>197191.5831222585</v>
       </c>
     </row>
     <row r="6">
@@ -698,16 +664,10 @@
         <v>4496184</v>
       </c>
       <c r="J6" t="n">
-        <v>277827.0493199031</v>
+        <v>296603.2833220758</v>
       </c>
       <c r="K6" t="n">
-        <v>225355.1477174143</v>
-      </c>
-      <c r="L6" t="n">
-        <v>296603.2833220756</v>
-      </c>
-      <c r="M6" t="n">
-        <v>241543.0965833145</v>
+        <v>241543.0965833151</v>
       </c>
     </row>
     <row r="7">
@@ -741,16 +701,10 @@
         <v>1334864.3</v>
       </c>
       <c r="J7" t="n">
-        <v>120630.4595237462</v>
+        <v>113052.0710867362</v>
       </c>
       <c r="K7" t="n">
-        <v>135165.0540123854</v>
-      </c>
-      <c r="L7" t="n">
-        <v>113052.0710867361</v>
-      </c>
-      <c r="M7" t="n">
-        <v>128631.3388653514</v>
+        <v>128631.3388653525</v>
       </c>
     </row>
     <row r="8">
@@ -784,16 +738,10 @@
         <v>11795218.6</v>
       </c>
       <c r="J8" t="n">
-        <v>568317.6295978869</v>
+        <v>586702.7206638864</v>
       </c>
       <c r="K8" t="n">
-        <v>575666.8861881202</v>
-      </c>
-      <c r="L8" t="n">
-        <v>586702.7206638865</v>
-      </c>
-      <c r="M8" t="n">
-        <v>591517.6107816081</v>
+        <v>591517.6107816091</v>
       </c>
     </row>
     <row r="9">
@@ -827,16 +775,10 @@
         <v>6387489.9</v>
       </c>
       <c r="J9" t="n">
-        <v>371987.9305045393</v>
+        <v>295515.1370437111</v>
       </c>
       <c r="K9" t="n">
-        <v>437192.1082427426</v>
-      </c>
-      <c r="L9" t="n">
-        <v>295515.1370437114</v>
-      </c>
-      <c r="M9" t="n">
-        <v>371261.0131129528</v>
+        <v>371261.0131129541</v>
       </c>
     </row>
     <row r="10">
@@ -870,16 +812,10 @@
         <v>1459877.1</v>
       </c>
       <c r="J10" t="n">
-        <v>121422.6068733595</v>
+        <v>123239.5901526704</v>
       </c>
       <c r="K10" t="n">
-        <v>119135.4021592051</v>
-      </c>
-      <c r="L10" t="n">
-        <v>123239.5901526703</v>
-      </c>
-      <c r="M10" t="n">
-        <v>120701.9161050941</v>
+        <v>120701.9161050948</v>
       </c>
     </row>
     <row r="11">
@@ -913,16 +849,10 @@
         <v>6101438.2</v>
       </c>
       <c r="J11" t="n">
-        <v>282220.806922204</v>
+        <v>298911.6851440556</v>
       </c>
       <c r="K11" t="n">
-        <v>326619.1428638996</v>
-      </c>
-      <c r="L11" t="n">
-        <v>298911.6851440558</v>
-      </c>
-      <c r="M11" t="n">
-        <v>341009.2001645831</v>
+        <v>341009.200164584</v>
       </c>
     </row>
     <row r="12">
@@ -956,16 +886,10 @@
         <v>71912361.40000001</v>
       </c>
       <c r="J12" t="n">
-        <v>3209920.963575094</v>
+        <v>3339423.263945251</v>
       </c>
       <c r="K12" t="n">
-        <v>3196433.163896515</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3339423.263945252</v>
-      </c>
-      <c r="M12" t="n">
-        <v>3308083.701281488</v>
+        <v>3308083.701281489</v>
       </c>
     </row>
     <row r="13">
@@ -999,16 +923,10 @@
         <v>92369061.40000001</v>
       </c>
       <c r="J13" t="n">
-        <v>3956347.635602505</v>
+        <v>4276640.879683654</v>
       </c>
       <c r="K13" t="n">
-        <v>3975842.094303144</v>
-      </c>
-      <c r="L13" t="n">
-        <v>4276640.879683655</v>
-      </c>
-      <c r="M13" t="n">
-        <v>4251983.234037503</v>
+        <v>4251983.234037505</v>
       </c>
     </row>
     <row r="14">
@@ -1042,16 +960,10 @@
         <v>11425943.1</v>
       </c>
       <c r="J14" t="n">
-        <v>528561.5292742867</v>
+        <v>566117.6154255972</v>
       </c>
       <c r="K14" t="n">
-        <v>532341.6910091741</v>
-      </c>
-      <c r="L14" t="n">
-        <v>566117.6154255973</v>
-      </c>
-      <c r="M14" t="n">
-        <v>564720.7081299884</v>
+        <v>564720.7081299892</v>
       </c>
     </row>
     <row r="15">
@@ -1085,16 +997,10 @@
         <v>10607413.3</v>
       </c>
       <c r="J15" t="n">
-        <v>500618.8809750428</v>
+        <v>542897.8526910085</v>
       </c>
       <c r="K15" t="n">
-        <v>490141.593505719</v>
-      </c>
-      <c r="L15" t="n">
-        <v>542897.8526910085</v>
-      </c>
-      <c r="M15" t="n">
-        <v>526592.4511250746</v>
+        <v>526592.4511250753</v>
       </c>
     </row>
     <row r="16">
@@ -1128,16 +1034,10 @@
         <v>5473972.9</v>
       </c>
       <c r="J16" t="n">
-        <v>300701.6255714328</v>
+        <v>312727.3098258253</v>
       </c>
       <c r="K16" t="n">
-        <v>303112.0980289502</v>
-      </c>
-      <c r="L16" t="n">
-        <v>312727.3098258252</v>
-      </c>
-      <c r="M16" t="n">
-        <v>313480.0536991364</v>
+        <v>313480.0536991375</v>
       </c>
     </row>
     <row r="17">
@@ -1171,16 +1071,10 @@
         <v>66439271.8</v>
       </c>
       <c r="J17" t="n">
-        <v>2946322.450784245</v>
+        <v>3112440.868453023</v>
       </c>
       <c r="K17" t="n">
-        <v>2909034.485375642</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3112440.868453023</v>
-      </c>
-      <c r="M17" t="n">
-        <v>3052253.644797882</v>
+        <v>3052253.644797883</v>
       </c>
     </row>
     <row r="18">
@@ -1214,16 +1108,10 @@
         <v>2058634.6</v>
       </c>
       <c r="J18" t="n">
-        <v>143358.9340440505</v>
+        <v>145393.1535404047</v>
       </c>
       <c r="K18" t="n">
-        <v>157962.1716889015</v>
-      </c>
-      <c r="L18" t="n">
-        <v>145393.1535404047</v>
-      </c>
-      <c r="M18" t="n">
-        <v>159715.9760559109</v>
+        <v>159715.9760559119</v>
       </c>
     </row>
     <row r="19">
@@ -1257,16 +1145,10 @@
         <v>2965009.3</v>
       </c>
       <c r="J19" t="n">
-        <v>195505.0441825092</v>
+        <v>200166.3363552928</v>
       </c>
       <c r="K19" t="n">
-        <v>175440.5836568885</v>
-      </c>
-      <c r="L19" t="n">
-        <v>200166.3363552926</v>
-      </c>
-      <c r="M19" t="n">
-        <v>179459.3213512157</v>
+        <v>179459.3213512163</v>
       </c>
     </row>
     <row r="20">
@@ -1300,16 +1182,10 @@
         <v>696386.9</v>
       </c>
       <c r="J20" t="n">
-        <v>54450.52058318205</v>
+        <v>44616.56343757952</v>
       </c>
       <c r="K20" t="n">
-        <v>95151.80914545854</v>
-      </c>
-      <c r="L20" t="n">
-        <v>44616.56343757955</v>
-      </c>
-      <c r="M20" t="n">
-        <v>86673.45318738687</v>
+        <v>86673.45318738745</v>
       </c>
     </row>
     <row r="21">
@@ -1343,16 +1219,10 @@
         <v>4430108.100000001</v>
       </c>
       <c r="J21" t="n">
-        <v>302207.375838814</v>
+        <v>324289.9787004715</v>
       </c>
       <c r="K21" t="n">
-        <v>214261.1796773341</v>
-      </c>
-      <c r="L21" t="n">
-        <v>324289.978700471</v>
-      </c>
-      <c r="M21" t="n">
-        <v>233299.7177520686</v>
+        <v>233299.7177520692</v>
       </c>
     </row>
     <row r="22">
@@ -1386,16 +1256,10 @@
         <v>18877626.9</v>
       </c>
       <c r="J22" t="n">
-        <v>776243.6115623373</v>
+        <v>854570.6283171746</v>
       </c>
       <c r="K22" t="n">
-        <v>880898.2602955314</v>
-      </c>
-      <c r="L22" t="n">
-        <v>854570.628317175</v>
-      </c>
-      <c r="M22" t="n">
-        <v>948427.9758870131</v>
+        <v>948427.9758870148</v>
       </c>
     </row>
     <row r="23">
@@ -1429,16 +1293,10 @@
         <v>5996008.7</v>
       </c>
       <c r="J23" t="n">
-        <v>279541.4721434482</v>
+        <v>292636.4574858383</v>
       </c>
       <c r="K23" t="n">
-        <v>333644.0387585302</v>
-      </c>
-      <c r="L23" t="n">
-        <v>292636.4574858384</v>
-      </c>
-      <c r="M23" t="n">
-        <v>344933.893427885</v>
+        <v>344933.8934278861</v>
       </c>
     </row>
     <row r="24">
@@ -1472,16 +1330,10 @@
         <v>41599229.1</v>
       </c>
       <c r="J24" t="n">
-        <v>1792302.861366636</v>
+        <v>1993240.704440592</v>
       </c>
       <c r="K24" t="n">
-        <v>1752831.169399393</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1993240.704440593</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1926069.931151571</v>
+        <v>1926069.931151572</v>
       </c>
     </row>
     <row r="25">
@@ -1515,16 +1367,10 @@
         <v>11193380</v>
       </c>
       <c r="J25" t="n">
-        <v>558734.035682674</v>
+        <v>580005.8881247588</v>
       </c>
       <c r="K25" t="n">
-        <v>537391.7751321237</v>
-      </c>
-      <c r="L25" t="n">
-        <v>580005.8881247587</v>
-      </c>
-      <c r="M25" t="n">
-        <v>555731.3239242616</v>
+        <v>555731.3239242624</v>
       </c>
     </row>
     <row r="26">
@@ -1558,16 +1404,10 @@
         <v>21062035.5</v>
       </c>
       <c r="J26" t="n">
-        <v>971694.0356375831</v>
+        <v>1064921.605497374</v>
       </c>
       <c r="K26" t="n">
-        <v>909577.2616309633</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1064921.605497374</v>
-      </c>
-      <c r="M26" t="n">
-        <v>989953.5039385428</v>
+        <v>989953.5039385435</v>
       </c>
     </row>
     <row r="27">
@@ -1601,16 +1441,10 @@
         <v>9583869.9</v>
       </c>
       <c r="J27" t="n">
-        <v>488376.8577079431</v>
+        <v>529585.4811969957</v>
       </c>
       <c r="K27" t="n">
-        <v>440960.5749513085</v>
-      </c>
-      <c r="L27" t="n">
-        <v>529585.4811969955</v>
-      </c>
-      <c r="M27" t="n">
-        <v>476488.6307796355</v>
+        <v>476488.6307796362</v>
       </c>
     </row>
     <row r="28">
@@ -1644,16 +1478,10 @@
         <v>6007648.9</v>
       </c>
       <c r="J28" t="n">
-        <v>363992.5053991884</v>
+        <v>387972.3231316094</v>
       </c>
       <c r="K28" t="n">
-        <v>263310.3313551344</v>
-      </c>
-      <c r="L28" t="n">
-        <v>387972.3231316091</v>
-      </c>
-      <c r="M28" t="n">
-        <v>283984.5551223242</v>
+        <v>283984.5551223243</v>
       </c>
     </row>
     <row r="29">
@@ -1687,16 +1515,10 @@
         <v>2287052.9</v>
       </c>
       <c r="J29" t="n">
-        <v>190228.228802117</v>
+        <v>197618.8960592867</v>
       </c>
       <c r="K29" t="n">
-        <v>137378.1857840054</v>
-      </c>
-      <c r="L29" t="n">
-        <v>197618.8960592864</v>
-      </c>
-      <c r="M29" t="n">
-        <v>143750.0569286715</v>
+        <v>143750.0569286721</v>
       </c>
     </row>
     <row r="30">
@@ -1730,16 +1552,10 @@
         <v>51444246.7</v>
       </c>
       <c r="J30" t="n">
-        <v>2302333.322109653</v>
+        <v>2398205.498160313</v>
       </c>
       <c r="K30" t="n">
-        <v>2299409.040496251</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2398205.498160313</v>
-      </c>
-      <c r="M30" t="n">
-        <v>2382065.332668106</v>
+        <v>2382065.332668107</v>
       </c>
     </row>
     <row r="31">
@@ -1773,16 +1589,10 @@
         <v>11157720.2</v>
       </c>
       <c r="J31" t="n">
-        <v>480399.0921819853</v>
+        <v>511909.0407437428</v>
       </c>
       <c r="K31" t="n">
-        <v>564721.2126208426</v>
-      </c>
-      <c r="L31" t="n">
-        <v>511909.0407437432</v>
-      </c>
-      <c r="M31" t="n">
-        <v>591887.5461904956</v>
+        <v>591887.546190497</v>
       </c>
     </row>
     <row r="32">
@@ -1816,16 +1626,10 @@
         <v>9568835.1</v>
       </c>
       <c r="J32" t="n">
-        <v>457901.135582499</v>
+        <v>486377.7470450826</v>
       </c>
       <c r="K32" t="n">
-        <v>462904.4378594708</v>
-      </c>
-      <c r="L32" t="n">
-        <v>486377.7470450826</v>
-      </c>
-      <c r="M32" t="n">
-        <v>487455.5768246685</v>
+        <v>487455.5768246694</v>
       </c>
     </row>
     <row r="33">
@@ -1859,16 +1663,10 @@
         <v>74949539.5</v>
       </c>
       <c r="J33" t="n">
-        <v>3577348.551833532</v>
+        <v>3467341.000225587</v>
       </c>
       <c r="K33" t="n">
-        <v>3549842.575118808</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3467341.000225589</v>
-      </c>
-      <c r="M33" t="n">
-        <v>3454999.454816502</v>
+        <v>3454999.454816504</v>
       </c>
     </row>
     <row r="34">
@@ -1902,19 +1700,13 @@
         <v>47903632.7</v>
       </c>
       <c r="J34" t="n">
-        <v>1986193.52583321</v>
+        <v>2245803.747893154</v>
       </c>
       <c r="K34" t="n">
-        <v>2019412.72434459</v>
-      </c>
-      <c r="L34" t="n">
-        <v>2245803.747893154</v>
-      </c>
-      <c r="M34" t="n">
-        <v>2243235.936139092</v>
+        <v>2243235.936139094</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Multilinear Regression/Final Predictions/Final EU Data.xlsx
+++ b/Multilinear Regression/Final Predictions/Final EU Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,10 +476,20 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>SKLearn Predictions EU</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Statsmodel Predictions EU</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>SKLearn Predictions Hypothetical EU</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Statsmodel Predictions Hypothetical EU</t>
         </is>
@@ -516,9 +526,15 @@
         <v>3163147.9</v>
       </c>
       <c r="J2" t="n">
+        <v>211764.5505116157</v>
+      </c>
+      <c r="K2" t="n">
+        <v>167977.5807442873</v>
+      </c>
+      <c r="L2" t="n">
         <v>227342.6094026559</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>181408.2197493701</v>
       </c>
     </row>
@@ -553,9 +569,15 @@
         <v>9946647.699999999</v>
       </c>
       <c r="J3" t="n">
+        <v>505931.2550248813</v>
+      </c>
+      <c r="K3" t="n">
+        <v>481183.235693148</v>
+      </c>
+      <c r="L3" t="n">
         <v>533144.8802702503</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>504645.4898319083</v>
       </c>
     </row>
@@ -590,9 +612,15 @@
         <v>12787486.8</v>
       </c>
       <c r="J4" t="n">
+        <v>570197.0825231428</v>
+      </c>
+      <c r="K4" t="n">
+        <v>605739.6782830961</v>
+      </c>
+      <c r="L4" t="n">
         <v>592338.2976849546</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>624828.7490108488</v>
       </c>
     </row>
@@ -627,9 +655,15 @@
         <v>3593093.9</v>
       </c>
       <c r="J5" t="n">
+        <v>255749.7049764417</v>
+      </c>
+      <c r="K5" t="n">
+        <v>182375.2131200868</v>
+      </c>
+      <c r="L5" t="n">
         <v>272935.0588794036</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>197191.5831222585</v>
       </c>
     </row>
@@ -664,9 +698,15 @@
         <v>4496184</v>
       </c>
       <c r="J6" t="n">
+        <v>277827.0493199034</v>
+      </c>
+      <c r="K6" t="n">
+        <v>225355.1477174149</v>
+      </c>
+      <c r="L6" t="n">
         <v>296603.2833220758</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>241543.0965833151</v>
       </c>
     </row>
@@ -701,9 +741,15 @@
         <v>1334864.3</v>
       </c>
       <c r="J7" t="n">
+        <v>120630.4595237463</v>
+      </c>
+      <c r="K7" t="n">
+        <v>135165.0540123865</v>
+      </c>
+      <c r="L7" t="n">
         <v>113052.0710867362</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>128631.3388653525</v>
       </c>
     </row>
@@ -738,9 +784,15 @@
         <v>11795218.6</v>
       </c>
       <c r="J8" t="n">
+        <v>568317.6295978869</v>
+      </c>
+      <c r="K8" t="n">
+        <v>575666.8861881212</v>
+      </c>
+      <c r="L8" t="n">
         <v>586702.7206638864</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>591517.6107816091</v>
       </c>
     </row>
@@ -775,9 +827,15 @@
         <v>6387489.9</v>
       </c>
       <c r="J9" t="n">
+        <v>371987.930504539</v>
+      </c>
+      <c r="K9" t="n">
+        <v>437192.1082427438</v>
+      </c>
+      <c r="L9" t="n">
         <v>295515.1370437111</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>371261.0131129541</v>
       </c>
     </row>
@@ -812,9 +870,15 @@
         <v>1459877.1</v>
       </c>
       <c r="J10" t="n">
+        <v>121422.6068733597</v>
+      </c>
+      <c r="K10" t="n">
+        <v>119135.4021592058</v>
+      </c>
+      <c r="L10" t="n">
         <v>123239.5901526704</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>120701.9161050948</v>
       </c>
     </row>
@@ -849,9 +913,15 @@
         <v>6101438.2</v>
       </c>
       <c r="J11" t="n">
+        <v>282220.8069222039</v>
+      </c>
+      <c r="K11" t="n">
+        <v>326619.1428639005</v>
+      </c>
+      <c r="L11" t="n">
         <v>298911.6851440556</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>341009.200164584</v>
       </c>
     </row>
@@ -886,9 +956,15 @@
         <v>71912361.40000001</v>
       </c>
       <c r="J12" t="n">
+        <v>3209920.963575093</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3196433.163896516</v>
+      </c>
+      <c r="L12" t="n">
         <v>3339423.263945251</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>3308083.701281489</v>
       </c>
     </row>
@@ -923,9 +999,15 @@
         <v>92369061.40000001</v>
       </c>
       <c r="J13" t="n">
+        <v>3956347.635602505</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3975842.094303146</v>
+      </c>
+      <c r="L13" t="n">
         <v>4276640.879683654</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>4251983.234037505</v>
       </c>
     </row>
@@ -960,9 +1042,15 @@
         <v>11425943.1</v>
       </c>
       <c r="J14" t="n">
+        <v>528561.5292742867</v>
+      </c>
+      <c r="K14" t="n">
+        <v>532341.6910091748</v>
+      </c>
+      <c r="L14" t="n">
         <v>566117.6154255972</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>564720.7081299892</v>
       </c>
     </row>
@@ -997,9 +1085,15 @@
         <v>10607413.3</v>
       </c>
       <c r="J15" t="n">
+        <v>500618.8809750429</v>
+      </c>
+      <c r="K15" t="n">
+        <v>490141.5935057198</v>
+      </c>
+      <c r="L15" t="n">
         <v>542897.8526910085</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>526592.4511250753</v>
       </c>
     </row>
@@ -1034,9 +1128,15 @@
         <v>5473972.9</v>
       </c>
       <c r="J16" t="n">
+        <v>300701.6255714328</v>
+      </c>
+      <c r="K16" t="n">
+        <v>303112.0980289513</v>
+      </c>
+      <c r="L16" t="n">
         <v>312727.3098258253</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>313480.0536991375</v>
       </c>
     </row>
@@ -1071,9 +1171,15 @@
         <v>66439271.8</v>
       </c>
       <c r="J17" t="n">
+        <v>2946322.450784245</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2909034.485375643</v>
+      </c>
+      <c r="L17" t="n">
         <v>3112440.868453023</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>3052253.644797883</v>
       </c>
     </row>
@@ -1108,9 +1214,15 @@
         <v>2058634.6</v>
       </c>
       <c r="J18" t="n">
+        <v>143358.9340440505</v>
+      </c>
+      <c r="K18" t="n">
+        <v>157962.1716889025</v>
+      </c>
+      <c r="L18" t="n">
         <v>145393.1535404047</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>159715.9760559119</v>
       </c>
     </row>
@@ -1145,9 +1257,15 @@
         <v>2965009.3</v>
       </c>
       <c r="J19" t="n">
+        <v>195505.0441825093</v>
+      </c>
+      <c r="K19" t="n">
+        <v>175440.5836568891</v>
+      </c>
+      <c r="L19" t="n">
         <v>200166.3363552928</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>179459.3213512163</v>
       </c>
     </row>
@@ -1182,9 +1300,15 @@
         <v>696386.9</v>
       </c>
       <c r="J20" t="n">
+        <v>54450.52058318198</v>
+      </c>
+      <c r="K20" t="n">
+        <v>95151.80914545912</v>
+      </c>
+      <c r="L20" t="n">
         <v>44616.56343757952</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>86673.45318738745</v>
       </c>
     </row>
@@ -1219,9 +1343,15 @@
         <v>4430108.100000001</v>
       </c>
       <c r="J21" t="n">
+        <v>302207.3758388144</v>
+      </c>
+      <c r="K21" t="n">
+        <v>214261.1796773347</v>
+      </c>
+      <c r="L21" t="n">
         <v>324289.9787004715</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>233299.7177520692</v>
       </c>
     </row>
@@ -1256,9 +1386,15 @@
         <v>18877626.9</v>
       </c>
       <c r="J22" t="n">
+        <v>776243.6115623369</v>
+      </c>
+      <c r="K22" t="n">
+        <v>880898.2602955329</v>
+      </c>
+      <c r="L22" t="n">
         <v>854570.6283171746</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>948427.9758870148</v>
       </c>
     </row>
@@ -1293,9 +1429,15 @@
         <v>5996008.7</v>
       </c>
       <c r="J23" t="n">
+        <v>279541.4721434481</v>
+      </c>
+      <c r="K23" t="n">
+        <v>333644.0387585313</v>
+      </c>
+      <c r="L23" t="n">
         <v>292636.4574858383</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>344933.8934278861</v>
       </c>
     </row>
@@ -1330,9 +1472,15 @@
         <v>41599229.1</v>
       </c>
       <c r="J24" t="n">
+        <v>1792302.861366636</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1752831.169399394</v>
+      </c>
+      <c r="L24" t="n">
         <v>1993240.704440592</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>1926069.931151572</v>
       </c>
     </row>
@@ -1367,9 +1515,15 @@
         <v>11193380</v>
       </c>
       <c r="J25" t="n">
+        <v>558734.0356826741</v>
+      </c>
+      <c r="K25" t="n">
+        <v>537391.7751321244</v>
+      </c>
+      <c r="L25" t="n">
         <v>580005.8881247588</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>555731.3239242624</v>
       </c>
     </row>
@@ -1404,9 +1558,15 @@
         <v>21062035.5</v>
       </c>
       <c r="J26" t="n">
+        <v>971694.0356375834</v>
+      </c>
+      <c r="K26" t="n">
+        <v>909577.261630964</v>
+      </c>
+      <c r="L26" t="n">
         <v>1064921.605497374</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>989953.5039385435</v>
       </c>
     </row>
@@ -1441,9 +1601,15 @@
         <v>9583869.9</v>
       </c>
       <c r="J27" t="n">
+        <v>488376.8577079434</v>
+      </c>
+      <c r="K27" t="n">
+        <v>440960.5749513093</v>
+      </c>
+      <c r="L27" t="n">
         <v>529585.4811969957</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>476488.6307796362</v>
       </c>
     </row>
@@ -1478,9 +1644,15 @@
         <v>6007648.9</v>
       </c>
       <c r="J28" t="n">
+        <v>363992.5053991889</v>
+      </c>
+      <c r="K28" t="n">
+        <v>263310.3313551344</v>
+      </c>
+      <c r="L28" t="n">
         <v>387972.3231316094</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>283984.5551223243</v>
       </c>
     </row>
@@ -1515,9 +1687,15 @@
         <v>2287052.9</v>
       </c>
       <c r="J29" t="n">
+        <v>190228.2288021173</v>
+      </c>
+      <c r="K29" t="n">
+        <v>137378.185784006</v>
+      </c>
+      <c r="L29" t="n">
         <v>197618.8960592867</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>143750.0569286721</v>
       </c>
     </row>
@@ -1552,9 +1730,15 @@
         <v>51444246.7</v>
       </c>
       <c r="J30" t="n">
+        <v>2302333.322109653</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2299409.040496252</v>
+      </c>
+      <c r="L30" t="n">
         <v>2398205.498160313</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>2382065.332668107</v>
       </c>
     </row>
@@ -1589,9 +1773,15 @@
         <v>11157720.2</v>
       </c>
       <c r="J31" t="n">
+        <v>480399.0921819851</v>
+      </c>
+      <c r="K31" t="n">
+        <v>564721.212620844</v>
+      </c>
+      <c r="L31" t="n">
         <v>511909.0407437428</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>591887.546190497</v>
       </c>
     </row>
@@ -1626,9 +1816,15 @@
         <v>9568835.1</v>
       </c>
       <c r="J32" t="n">
+        <v>457901.135582499</v>
+      </c>
+      <c r="K32" t="n">
+        <v>462904.4378594716</v>
+      </c>
+      <c r="L32" t="n">
         <v>486377.7470450826</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>487455.5768246694</v>
       </c>
     </row>
@@ -1663,9 +1859,15 @@
         <v>74949539.5</v>
       </c>
       <c r="J33" t="n">
+        <v>3577348.551833532</v>
+      </c>
+      <c r="K33" t="n">
+        <v>3549842.57511881</v>
+      </c>
+      <c r="L33" t="n">
         <v>3467341.000225587</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>3454999.454816504</v>
       </c>
     </row>
@@ -1700,9 +1902,15 @@
         <v>47903632.7</v>
       </c>
       <c r="J34" t="n">
+        <v>1986193.52583321</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2019412.724344592</v>
+      </c>
+      <c r="L34" t="n">
         <v>2245803.747893154</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>2243235.936139094</v>
       </c>
     </row>
